--- a/biology/Botanique/Chrysophyllum_gonocarpum/Chrysophyllum_gonocarpum.xlsx
+++ b/biology/Botanique/Chrysophyllum_gonocarpum/Chrysophyllum_gonocarpum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysophyllum gonocarpum (ou Chrysophyllum lucumifolium) est une espèce de plantes à fleurs du genre Chrysophyllum et de la famille des Sapotaceae. C'est un arbre originaire du Brésil (vallée de Quaraí dans le Rio Grande do Sul et d'Argentine (province de Misiones). Au Brésil, il est aussi connu comme cascaveleira et tinguí-de-leite ; en Argentine, sous le nom d'aguay. 
 Autres noms au Brésil : aguaizeiro, agaí, auaí, caxeta amarela.
@@ -512,7 +524,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit est comestible. C'est une pomme de lait (voir Chrysophyllum cainito).
 </t>
